--- a/GunfireDungeon_Godot/excel/ActivePropBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivePropBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26235" windowHeight="13620"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -127,9 +127,6 @@
     <t>uint</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>医药箱</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>"ChangeHp":[2]</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
     <t>弹药箱</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>"TotalAmmo":[]</t>
   </si>
   <si>
-    <t>0003</t>
-  </si>
-  <si>
     <t>猪猪存钱罐</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>"PiggyBank":[2]</t>
   </si>
   <si>
-    <t>0004</t>
-  </si>
-  <si>
     <t>红外遥控器</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>"Hurt":[250]</t>
   </si>
   <si>
-    <t>0005</t>
-  </si>
-  <si>
     <t>魔术棒</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
   </si>
   <si>
     <t>"EnterRoom":[0.5]</t>
-  </si>
-  <si>
-    <t>0006</t>
   </si>
   <si>
     <t>便携式供血器</t>
@@ -217,9 +199,6 @@
   </si>
   <si>
     <t>"EnterRoom":[1]</t>
-  </si>
-  <si>
-    <t>0007</t>
   </si>
   <si>
     <t>便携式献血器</t>
@@ -1231,11 +1210,11 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,21 +1335,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:11">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="33" customHeight="1" spans="2:11">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1385,21 +1361,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:11">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="33" customHeight="1" spans="2:11">
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1414,18 +1387,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:11">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="33" customHeight="1" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1440,21 +1410,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:11">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="33" customHeight="1" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -1469,21 +1436,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="8" ht="33" customHeight="1" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1498,24 +1462,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="9" ht="57" customHeight="1" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1530,21 +1491,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="10" ht="57" customHeight="1" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
